--- a/HouseholdPlanningModel/HouseholdPlanningModel.xlsx
+++ b/HouseholdPlanningModel/HouseholdPlanningModel.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SAP\Blogs\Family Expenses Allocation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UladzislauP\Documents\GitHub\SAC\HouseholdPlanningModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06429B29-7AA8-42F6-B215-E8C31D5324B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8165DFFB-D3E3-457A-9C2A-F68300CDD806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
     <sheet name="Family" sheetId="2" r:id="rId2"/>
-    <sheet name="Transaction Data" sheetId="4" r:id="rId3"/>
+    <sheet name="Data" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1800,9 +1800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2368,9 +2366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C281497E-4FDF-4BA1-B879-3B5D59AA270F}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2476,9 +2472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C31BDA-4C48-48FF-AEA0-4E5CD5995976}">
   <dimension ref="A1:F1057"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="I1057" sqref="I1057"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2487,23 +2481,23 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -23629,5 +23623,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/HouseholdPlanningModel/HouseholdPlanningModel.xlsx
+++ b/HouseholdPlanningModel/HouseholdPlanningModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UladzislauP\Documents\GitHub\SAC\HouseholdPlanningModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8165DFFB-D3E3-457A-9C2A-F68300CDD806}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9822B59-1812-4D51-8ED9-C5A6064DE7A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4534" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4616" uniqueCount="139">
   <si>
     <t>Member ID</t>
   </si>
@@ -324,6 +324,139 @@
   </si>
   <si>
     <t>Version</t>
+  </si>
+  <si>
+    <t>K004</t>
+  </si>
+  <si>
+    <t>Salary Father (Ref)</t>
+  </si>
+  <si>
+    <t>LOOKUP([I001],[d/Date].[p/YEAR]= "2019" and [d/Version]="public.Actual" and [d/Family]="P1" )</t>
+  </si>
+  <si>
+    <t>K005</t>
+  </si>
+  <si>
+    <t>Salary Father (Gross)</t>
+  </si>
+  <si>
+    <t>[K004]</t>
+  </si>
+  <si>
+    <t>K006</t>
+  </si>
+  <si>
+    <t>RRSP Father (%)</t>
+  </si>
+  <si>
+    <t>K007</t>
+  </si>
+  <si>
+    <t>RRSP Father</t>
+  </si>
+  <si>
+    <t>[K005]*[K006]</t>
+  </si>
+  <si>
+    <t>K008</t>
+  </si>
+  <si>
+    <t>Salary Father (Net)</t>
+  </si>
+  <si>
+    <t>[K005]-[K007]</t>
+  </si>
+  <si>
+    <t>K009</t>
+  </si>
+  <si>
+    <t>Tax Father</t>
+  </si>
+  <si>
+    <t>K010</t>
+  </si>
+  <si>
+    <t>Tax Father (%)</t>
+  </si>
+  <si>
+    <t>[K009]/[K008]</t>
+  </si>
+  <si>
+    <t>K011</t>
+  </si>
+  <si>
+    <t>Salary Mother (Ref)</t>
+  </si>
+  <si>
+    <t>LOOKUP([I001],[d/Date].[p/YEAR]= "2019" and [d/Version]="public.Actual" and [d/Family]=  "P2" )</t>
+  </si>
+  <si>
+    <t>K012</t>
+  </si>
+  <si>
+    <t>Salary Mother (Gross)</t>
+  </si>
+  <si>
+    <t>[K011]</t>
+  </si>
+  <si>
+    <t>K013</t>
+  </si>
+  <si>
+    <t>RRSP Mother (%)</t>
+  </si>
+  <si>
+    <t>K014</t>
+  </si>
+  <si>
+    <t>RRSP Mother</t>
+  </si>
+  <si>
+    <t>[K012]*[K013]</t>
+  </si>
+  <si>
+    <t>K015</t>
+  </si>
+  <si>
+    <t>Salary Mother (Net)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[K012]-[K014]
+</t>
+  </si>
+  <si>
+    <t>K016</t>
+  </si>
+  <si>
+    <t>Tax Mother</t>
+  </si>
+  <si>
+    <t>IF([K015] &gt;= 48535,48535 * 0.15 ,[K015]*.15  )+
+IF([K015] &gt;= 48535 ,IF([K015]&lt;97069,([K015]-48535)*0.205,(97069-48535)*0.205 ),0 )+
+IF([K015] &gt;= 97069 ,IF([K015]&lt;150473,([K015]-97069)*0.26,(150473-97069)*0.26 ),0 )+
+IF([K015] &gt;= 150473 ,IF([K015]&lt;214368,([K015]-150473)*0.29,(214368-150473)*0.29 ),0 )+
+IF([K015] &gt;= 214368 ,([K015]-214368)*0.33 ,0 )</t>
+  </si>
+  <si>
+    <t>K017</t>
+  </si>
+  <si>
+    <t>Tax Mother (%)</t>
+  </si>
+  <si>
+    <t>[K016]/[K015]</t>
+  </si>
+  <si>
+    <t>IF([K008] &gt;= 48535,48535 * 0.15 ,[K008]*.15  )+
+IF([K008] &gt;= 48535 ,IF([K008]&lt;97069,([K008]-48535)*0.205,(97069-48535)*0.205 ),0 )+
+IF([K008] &gt;= 97069 ,IF([K008]&lt;150473,([K008]-97069)*0.26,(150473-97069)*0.26 ),0 )+
+IF([K008] &gt;= 150473 ,IF([K008]&lt;214368,([K008]-150473)*0.29,(214368-150473)*0.29 ),0 )+
+IF([K008] &gt;= 214368 ,([K008]-214368)*0.33 ,0 )
+IF([K008] &gt;= 48535 ,IF([K008]&lt;97069,([K008]-48535)*0.205,(97069-48535)*0.205 ),0 )+
+IF([K008] &gt;= 97069 ,IF([K008]&lt;150473,([K008]-97069)*0.26,(150473-97069)*0.26 ),0 )+
+IF([K008] &gt;= 150473 ,IF([K008]&lt;214368,([K008]-150473)*0.29,(214368-150473)*0.29 ),0 )+
+IF([K008] &gt;= 214368 ,([K008]-214368)*0.33 ,0 )</t>
   </si>
 </sst>
 </file>
@@ -1393,10 +1526,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="122">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{9408A962-8F90-4333-BB29-0BA11466A426}"/>
@@ -1798,14 +1934,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="94.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -2158,7 +2296,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -2178,7 +2316,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -2198,7 +2336,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -2218,7 +2356,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -2238,7 +2376,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -2258,7 +2396,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -2273,7 +2411,7 @@
       </c>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -2296,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -2319,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -2342,18 +2480,349 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="M26" t="s">
+        <v>94</v>
+      </c>
+      <c r="O26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" t="s">
+        <v>94</v>
+      </c>
+      <c r="O27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="O28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="M29" t="s">
+        <v>94</v>
+      </c>
+      <c r="O29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="M30" t="s">
+        <v>94</v>
+      </c>
+      <c r="O30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="M31" t="s">
+        <v>94</v>
+      </c>
+      <c r="O31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="O32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" t="s">
+        <v>56</v>
+      </c>
+      <c r="M33" t="s">
+        <v>94</v>
+      </c>
+      <c r="O33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>121</v>
+      </c>
+      <c r="B34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" t="s">
+        <v>56</v>
+      </c>
+      <c r="M34" t="s">
+        <v>94</v>
+      </c>
+      <c r="O34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" t="s">
+        <v>65</v>
+      </c>
+      <c r="K35" t="s">
+        <v>66</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="O35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+      <c r="M36" t="s">
+        <v>94</v>
+      </c>
+      <c r="O36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+      <c r="M37" t="s">
+        <v>94</v>
+      </c>
+      <c r="O37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+      <c r="M38" t="s">
+        <v>94</v>
+      </c>
+      <c r="O38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" t="s">
+        <v>65</v>
+      </c>
+      <c r="K39" t="s">
+        <v>66</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>73</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B40" t="s">
         <v>74</v>
       </c>
-      <c r="C26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" t="s">
         <v>65</v>
+      </c>
+      <c r="O40" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/HouseholdPlanningModel/HouseholdPlanningModel.xlsx
+++ b/HouseholdPlanningModel/HouseholdPlanningModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UladzislauP\Documents\GitHub\SAC\HouseholdPlanningModel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9822B59-1812-4D51-8ED9-C5A6064DE7A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B9940E-4266-4F81-8066-438DC3E268A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,10 +449,6 @@
   </si>
   <si>
     <t>IF([K008] &gt;= 48535,48535 * 0.15 ,[K008]*.15  )+
-IF([K008] &gt;= 48535 ,IF([K008]&lt;97069,([K008]-48535)*0.205,(97069-48535)*0.205 ),0 )+
-IF([K008] &gt;= 97069 ,IF([K008]&lt;150473,([K008]-97069)*0.26,(150473-97069)*0.26 ),0 )+
-IF([K008] &gt;= 150473 ,IF([K008]&lt;214368,([K008]-150473)*0.29,(214368-150473)*0.29 ),0 )+
-IF([K008] &gt;= 214368 ,([K008]-214368)*0.33 ,0 )
 IF([K008] &gt;= 48535 ,IF([K008]&lt;97069,([K008]-48535)*0.205,(97069-48535)*0.205 ),0 )+
 IF([K008] &gt;= 97069 ,IF([K008]&lt;150473,([K008]-97069)*0.26,(150473-97069)*0.26 ),0 )+
 IF([K008] &gt;= 150473 ,IF([K008]&lt;214368,([K008]-150473)*0.29,(214368-150473)*0.29 ),0 )+
@@ -1936,8 +1932,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2595,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>113</v>
       </c>
